--- a/test/excel/SV_tsv_test1.xlsx
+++ b/test/excel/SV_tsv_test1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11820" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11820" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Sample HELP" sheetId="27" r:id="rId7"/>
     <sheet name="Experiment" sheetId="12" r:id="rId8"/>
     <sheet name="Experiment HELP" sheetId="13" r:id="rId9"/>
-    <sheet name="Assay" sheetId="14" r:id="rId10"/>
+    <sheet name="Dataset" sheetId="14" r:id="rId10"/>
     <sheet name="Assay HELP" sheetId="15" r:id="rId11"/>
     <sheet name="Variant Call (SV)" sheetId="22" r:id="rId12"/>
     <sheet name="Variant Call HELP" sheetId="23" r:id="rId13"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="557">
   <si>
     <t>Placement</t>
   </si>
@@ -1564,10 +1564,6 @@
   </si>
   <si>
     <t>## An Assay references 1 SampleSet and 1 Experiment, and resulting variations in 1 VCF file or in Variant Call/Region sheets (for structural variations only).</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t># Assay ID</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2090,10 +2086,6 @@
     <t>Identical to variant call (no regions submitted)</t>
   </si>
   <si>
-    <t>Assay ID</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Test</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2229,6 +2221,50 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>call6</t>
+  </si>
+  <si>
+    <t>call7</t>
+  </si>
+  <si>
+    <t>call8</t>
+  </si>
+  <si>
+    <t>call9</t>
+  </si>
+  <si>
+    <t>call10</t>
+  </si>
+  <si>
+    <t>call11</t>
+  </si>
+  <si>
+    <t>call12</t>
+  </si>
+  <si>
+    <t>call13</t>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t># Dataset ID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Dataset Description</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Dataset ID</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3184,7 +3220,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -3194,12 +3230,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -3219,22 +3255,22 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -3485,7 +3521,7 @@
         <v>260</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -3542,7 +3578,7 @@
     </row>
     <row r="32" spans="1:26" ht="262.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
@@ -30181,7 +30217,7 @@
   <dimension ref="A1:G1003"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30210,7 +30246,7 @@
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>400</v>
+        <v>554</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>201</v>
@@ -30222,7 +30258,7 @@
         <v>247</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>203</v>
+        <v>555</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>204</v>
@@ -30245,7 +30281,7 @@
         <v>96</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -30264,7 +30300,7 @@
         <v>96</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -31385,7 +31421,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -31441,7 +31477,7 @@
         <v>271</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -31458,8 +31494,8 @@
   </sheetPr>
   <dimension ref="A1:AI104"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -31503,17 +31539,17 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -31558,13 +31594,13 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>207</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>507</v>
+        <v>556</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>86</v>
@@ -31597,13 +31633,13 @@
         <v>216</v>
       </c>
       <c r="N5" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="O5" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="O5" s="10" t="s">
-        <v>449</v>
-      </c>
       <c r="P5" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q5" s="10" t="s">
         <v>220</v>
@@ -31633,7 +31669,7 @@
         <v>226</v>
       </c>
       <c r="Z5" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>227</v>
@@ -31665,7 +31701,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>116</v>
@@ -31674,7 +31710,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -31722,7 +31758,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>97</v>
@@ -31731,7 +31767,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E7" s="6">
         <v>2</v>
@@ -31749,11 +31785,9 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6">
-        <v>50</v>
-      </c>
-      <c r="O7" s="6">
-        <v>0.5</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="O7" s="6"/>
       <c r="P7" s="6">
         <v>100</v>
       </c>
@@ -31781,7 +31815,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>117</v>
@@ -31790,7 +31824,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E8" s="6">
         <v>3</v>
@@ -31838,7 +31872,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>130</v>
@@ -31869,7 +31903,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AA9" s="6">
         <v>1</v>
@@ -31878,7 +31912,7 @@
         <v>10000</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AD9" s="6">
         <v>5</v>
@@ -31887,7 +31921,7 @@
         <v>500044</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6">
@@ -31897,7 +31931,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>134</v>
@@ -31928,7 +31962,7 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AA10" s="6">
         <v>3</v>
@@ -31937,16 +31971,16 @@
         <v>200000</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AE10" s="6">
         <v>56666</v>
       </c>
       <c r="AF10" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AG10" s="6"/>
       <c r="AH10" s="6">
@@ -31955,22 +31989,42 @@
       <c r="AI10" s="6"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="A11" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6">
+        <v>50000</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="K11" s="6">
+        <v>50100</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="N11" s="6">
+        <v>100</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="6">
+        <v>200</v>
+      </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -31992,22 +32046,40 @@
       <c r="AI11" s="6"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="A12" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6">
+        <v>50000</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="K12" s="6">
+        <v>50100</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="N12" s="6">
+        <v>88</v>
+      </c>
       <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="P12" s="6">
+        <v>200</v>
+      </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -32029,22 +32101,40 @@
       <c r="AI12" s="6"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E13" s="6">
+        <v>6</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6">
+        <v>50000</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="K13" s="6">
+        <v>50100</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="N13" s="6">
+        <v>99</v>
+      </c>
       <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="P13" s="6">
+        <v>200</v>
+      </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -32066,22 +32156,42 @@
       <c r="AI13" s="6"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E14" s="6">
+        <v>7</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6">
+        <v>50000</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="K14" s="6">
+        <v>50100</v>
+      </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="N14" s="6">
+        <v>100</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P14" s="6">
+        <v>200</v>
+      </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -32103,22 +32213,42 @@
       <c r="AI14" s="6"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E15" s="6">
+        <v>8</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6">
+        <v>50000</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="K15" s="6">
+        <v>50000</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="N15" s="6">
+        <v>100</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P15" s="6">
+        <v>200</v>
+      </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -32140,22 +32270,42 @@
       <c r="AI15" s="6"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E16" s="6">
+        <v>9</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="6">
+        <v>50000</v>
+      </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="K16" s="6">
+        <v>50000</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="N16" s="6">
+        <v>100</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P16" s="6">
+        <v>200</v>
+      </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
@@ -32177,22 +32327,42 @@
       <c r="AI16" s="6"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="A17" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>552</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6">
+        <v>50000</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="K17" s="6">
+        <v>50000</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="N17" s="6">
+        <v>100</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P17" s="6">
+        <v>200</v>
+      </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -32214,22 +32384,42 @@
       <c r="AI17" s="6"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="A18" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>553</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6">
+        <v>50000</v>
+      </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="K18" s="6">
+        <v>50000</v>
+      </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="N18" s="6">
+        <v>100</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P18" s="6">
+        <v>200</v>
+      </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -35487,12 +35677,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -35750,7 +35940,7 @@
         <v>362</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C36" s="76" t="s">
         <v>308</v>
@@ -35841,7 +36031,7 @@
   </sheetPr>
   <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -35865,17 +36055,17 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="30"/>
@@ -35898,7 +36088,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>239</v>
@@ -35945,16 +36135,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>111</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -35971,23 +36161,23 @@
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="N6" s="32"/>
       <c r="O6" s="32"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>106</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E7" s="6">
         <v>2</v>
@@ -36004,23 +36194,23 @@
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E8" s="6">
         <v>3</v>
@@ -36037,23 +36227,23 @@
         <v>1046480</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>144</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E9" s="23">
         <v>1</v>
@@ -36070,23 +36260,23 @@
       </c>
       <c r="L9" s="23"/>
       <c r="M9" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>144</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E10" s="23">
         <v>10</v>
@@ -36103,7 +36293,7 @@
       </c>
       <c r="L10" s="23"/>
       <c r="M10" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
@@ -37765,12 +37955,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -37941,7 +38131,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -38332,7 +38522,7 @@
         <v>360</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>379</v>
@@ -38350,13 +38540,13 @@
         <v>246</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O1" s="22"/>
     </row>
@@ -38377,7 +38567,7 @@
         <v>351</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>85</v>
@@ -38395,13 +38585,13 @@
         <v>91</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -38421,7 +38611,7 @@
         <v>352</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>92</v>
@@ -38439,13 +38629,13 @@
         <v>98</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>99</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -38462,7 +38652,7 @@
         <v>353</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>101</v>
@@ -38480,13 +38670,13 @@
         <v>105</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>106</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -38512,7 +38702,7 @@
         <v>106</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>111</v>
@@ -38541,7 +38731,7 @@
         <v>116</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>117</v>
@@ -38567,7 +38757,7 @@
         <v>121</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>122</v>
@@ -38590,7 +38780,7 @@
         <v>111</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>125</v>
@@ -38610,7 +38800,7 @@
         <v>117</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>128</v>
@@ -38627,7 +38817,7 @@
         <v>130</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>131</v>
@@ -38644,7 +38834,7 @@
         <v>134</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>135</v>
@@ -38661,7 +38851,7 @@
         <v>122</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>138</v>
@@ -38678,7 +38868,7 @@
         <v>125</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>140</v>
@@ -38695,7 +38885,7 @@
         <v>143</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>144</v>
@@ -38712,7 +38902,7 @@
         <v>146</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -38726,7 +38916,7 @@
         <v>149</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="7:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -38740,7 +38930,7 @@
         <v>152</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="7:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -39817,7 +40007,7 @@
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39826,7 +40016,7 @@
         <v>205</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39834,15 +40024,15 @@
         <v>167</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -39851,7 +40041,7 @@
     </row>
     <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -39861,10 +40051,10 @@
     </row>
     <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -39873,10 +40063,10 @@
     </row>
     <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -39885,10 +40075,10 @@
     </row>
     <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -39897,10 +40087,10 @@
     </row>
     <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39908,7 +40098,7 @@
         <v>169</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39936,7 +40126,7 @@
         <v>182</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39956,12 +40146,12 @@
         <v>168</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B20" s="70">
         <v>45050</v>
@@ -39969,19 +40159,19 @@
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B21" s="70"/>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="69" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B22" s="70"/>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="69" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B23" s="6"/>
     </row>
@@ -41013,7 +41203,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -41022,7 +41212,7 @@
         <v>205</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -41030,55 +41220,55 @@
         <v>167</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -41086,7 +41276,7 @@
         <v>169</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -41094,7 +41284,7 @@
         <v>170</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -41102,7 +41292,7 @@
         <v>184</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -41110,7 +41300,7 @@
         <v>183</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -41118,7 +41308,7 @@
         <v>182</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -41126,7 +41316,7 @@
         <v>171</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -41134,7 +41324,7 @@
         <v>172</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -41142,39 +41332,39 @@
         <v>168</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="69" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -42242,11 +42432,11 @@
         <v>87</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -42259,14 +42449,14 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>501</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -42382,7 +42572,7 @@
         <v>177</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -42429,7 +42619,7 @@
   <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -42495,7 +42685,7 @@
         <v>391</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>327</v>
@@ -42545,13 +42735,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -42562,10 +42752,10 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -42576,13 +42766,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -42593,10 +42783,10 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -42607,13 +42797,13 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D8" s="6">
         <v>2</v>
@@ -42624,10 +42814,10 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -42638,13 +42828,13 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D9" s="6">
         <v>2</v>
@@ -42655,10 +42845,10 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -44531,10 +44721,10 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="74"/>
       <c r="B4" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>487</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -44702,8 +44892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -44726,7 +44916,7 @@
         <v>396</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>187</v>
@@ -44770,7 +44960,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>159</v>
@@ -44782,16 +44972,16 @@
         <v>86</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
@@ -45029,10 +45219,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
